--- a/data/Ranked_Contacts.xlsx
+++ b/data/Ranked_Contacts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Data_Science_Projects\JLG_Repositories\JLG_Provider_Recommender\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ben\Documents\Data_Science_Projects\APP_Recommend_Providers\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C6D7D4F-D5EF-42E4-8C2E-95071C7D9F9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869140B1-C7C1-4CE4-B94A-B616F5BF609B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{81FFEF59-0377-43AD-A48E-447AB4A999AF}"/>
   </bookViews>
@@ -461,9 +461,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="81.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
